--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl14-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>319.451837900747</v>
+        <v>0.3845936666666667</v>
       </c>
       <c r="H2">
-        <v>319.451837900747</v>
+        <v>1.153781</v>
       </c>
       <c r="I2">
-        <v>0.9972090511809203</v>
+        <v>0.001195342028687421</v>
       </c>
       <c r="J2">
-        <v>0.9972090511809203</v>
+        <v>0.001195342028687421</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N2">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q2">
-        <v>22783.91731590696</v>
+        <v>86.23824731813711</v>
       </c>
       <c r="R2">
-        <v>22783.91731590696</v>
+        <v>776.1442258632339</v>
       </c>
       <c r="S2">
-        <v>0.7719648866172391</v>
+        <v>0.001076986912812595</v>
       </c>
       <c r="T2">
-        <v>0.7719648866172391</v>
+        <v>0.001076986912812594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>319.451837900747</v>
+        <v>0.3845936666666667</v>
       </c>
       <c r="H3">
-        <v>319.451837900747</v>
+        <v>1.153781</v>
       </c>
       <c r="I3">
-        <v>0.9972090511809203</v>
+        <v>0.001195342028687421</v>
       </c>
       <c r="J3">
-        <v>0.9972090511809203</v>
+        <v>0.001195342028687421</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N3">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q3">
-        <v>208.6425934005867</v>
+        <v>0.3937102031392222</v>
       </c>
       <c r="R3">
-        <v>208.6425934005867</v>
+        <v>3.543391828253</v>
       </c>
       <c r="S3">
-        <v>0.007069230182184724</v>
+        <v>4.916852433903221E-06</v>
       </c>
       <c r="T3">
-        <v>0.007069230182184724</v>
+        <v>4.916852433903221E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>319.451837900747</v>
+        <v>0.3845936666666667</v>
       </c>
       <c r="H4">
-        <v>319.451837900747</v>
+        <v>1.153781</v>
       </c>
       <c r="I4">
-        <v>0.9972090511809203</v>
+        <v>0.001195342028687421</v>
       </c>
       <c r="J4">
-        <v>0.9972090511809203</v>
+        <v>0.001195342028687421</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N4">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O4">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P4">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q4">
-        <v>6439.256178003004</v>
+        <v>9.083413086618112</v>
       </c>
       <c r="R4">
-        <v>6439.256178003004</v>
+        <v>81.750717779563</v>
       </c>
       <c r="S4">
-        <v>0.2181749343814966</v>
+        <v>0.0001134382634409236</v>
       </c>
       <c r="T4">
-        <v>0.2181749343814966</v>
+        <v>0.0001134382634409236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.894069030647178</v>
+        <v>319.7836203333333</v>
       </c>
       <c r="H5">
-        <v>0.894069030647178</v>
+        <v>959.350861</v>
       </c>
       <c r="I5">
-        <v>0.002790948819079662</v>
+        <v>0.9939082065060565</v>
       </c>
       <c r="J5">
-        <v>0.002790948819079662</v>
+        <v>0.9939082065060565</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N5">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O5">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P5">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q5">
-        <v>63.7667167697042</v>
+        <v>71705.7542252696</v>
       </c>
       <c r="R5">
-        <v>63.7667167697042</v>
+        <v>645351.7880274263</v>
       </c>
       <c r="S5">
-        <v>0.002160544457678075</v>
+        <v>0.8954977782547073</v>
       </c>
       <c r="T5">
-        <v>0.002160544457678075</v>
+        <v>0.8954977782547074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.894069030647178</v>
+        <v>319.7836203333333</v>
       </c>
       <c r="H6">
-        <v>0.894069030647178</v>
+        <v>959.350861</v>
       </c>
       <c r="I6">
-        <v>0.002790948819079662</v>
+        <v>0.9939082065060565</v>
       </c>
       <c r="J6">
-        <v>0.002790948819079662</v>
+        <v>0.9939082065060565</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N6">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P6">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q6">
-        <v>0.5839405478435022</v>
+        <v>327.3638778642547</v>
       </c>
       <c r="R6">
-        <v>0.5839405478435022</v>
+        <v>2946.274900778293</v>
       </c>
       <c r="S6">
-        <v>1.978507877100209E-05</v>
+        <v>0.004088285918969891</v>
       </c>
       <c r="T6">
-        <v>1.978507877100209E-05</v>
+        <v>0.004088285918969892</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>319.7836203333333</v>
+      </c>
+      <c r="H7">
+        <v>959.350861</v>
+      </c>
+      <c r="I7">
+        <v>0.9939082065060565</v>
+      </c>
+      <c r="J7">
+        <v>0.9939082065060565</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>23.61820766666667</v>
+      </c>
+      <c r="N7">
+        <v>70.854623</v>
+      </c>
+      <c r="O7">
+        <v>0.0949002550889034</v>
+      </c>
+      <c r="P7">
+        <v>0.09490025508890343</v>
+      </c>
+      <c r="Q7">
+        <v>7552.715953431156</v>
+      </c>
+      <c r="R7">
+        <v>67974.44358088041</v>
+      </c>
+      <c r="S7">
+        <v>0.09432214233237925</v>
+      </c>
+      <c r="T7">
+        <v>0.09432214233237927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.575402</v>
+      </c>
+      <c r="H8">
+        <v>4.726206</v>
+      </c>
+      <c r="I8">
+        <v>0.004896451465256114</v>
+      </c>
+      <c r="J8">
+        <v>0.004896451465256113</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>224.2321046666667</v>
+      </c>
+      <c r="N8">
+        <v>672.696314</v>
+      </c>
+      <c r="O8">
+        <v>0.9009864013525987</v>
+      </c>
+      <c r="P8">
+        <v>0.9009864013525988</v>
+      </c>
+      <c r="Q8">
+        <v>353.2557061560761</v>
+      </c>
+      <c r="R8">
+        <v>3179.301355404684</v>
+      </c>
+      <c r="S8">
+        <v>0.004411636185078765</v>
+      </c>
+      <c r="T8">
+        <v>0.004411636185078764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.894069030647178</v>
-      </c>
-      <c r="H7">
-        <v>0.894069030647178</v>
-      </c>
-      <c r="I7">
-        <v>0.002790948819079662</v>
-      </c>
-      <c r="J7">
-        <v>0.002790948819079662</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.1572049806258</v>
-      </c>
-      <c r="N7">
-        <v>20.1572049806258</v>
-      </c>
-      <c r="O7">
-        <v>0.2187855536641272</v>
-      </c>
-      <c r="P7">
-        <v>0.2187855536641272</v>
-      </c>
-      <c r="Q7">
-        <v>18.02193271758458</v>
-      </c>
-      <c r="R7">
-        <v>18.02193271758458</v>
-      </c>
-      <c r="S7">
-        <v>0.0006106192826305858</v>
-      </c>
-      <c r="T7">
-        <v>0.0006106192826305858</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.575402</v>
+      </c>
+      <c r="H9">
+        <v>4.726206</v>
+      </c>
+      <c r="I9">
+        <v>0.004896451465256114</v>
+      </c>
+      <c r="J9">
+        <v>0.004896451465256113</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.023704333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.071113</v>
+      </c>
+      <c r="O9">
+        <v>0.004113343558497904</v>
+      </c>
+      <c r="P9">
+        <v>0.004113343558497904</v>
+      </c>
+      <c r="Q9">
+        <v>1.612745854142</v>
+      </c>
+      <c r="R9">
+        <v>14.514712687278</v>
+      </c>
+      <c r="S9">
+        <v>2.014078709410886E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.014078709410886E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.575402</v>
+      </c>
+      <c r="H10">
+        <v>4.726206</v>
+      </c>
+      <c r="I10">
+        <v>0.004896451465256114</v>
+      </c>
+      <c r="J10">
+        <v>0.004896451465256113</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.61820766666667</v>
+      </c>
+      <c r="N10">
+        <v>70.854623</v>
+      </c>
+      <c r="O10">
+        <v>0.0949002550889034</v>
+      </c>
+      <c r="P10">
+        <v>0.09490025508890343</v>
+      </c>
+      <c r="Q10">
+        <v>37.208171594482</v>
+      </c>
+      <c r="R10">
+        <v>334.873544350338</v>
+      </c>
+      <c r="S10">
+        <v>0.00046467449308324</v>
+      </c>
+      <c r="T10">
+        <v>0.0004646744930832401</v>
       </c>
     </row>
   </sheetData>
